--- a/Boletines hidrológicos Mensuales/Informes Pluviométricos Nacionales Mensuales/Informe Pluviométrico Nacional Totales al 31 de Octubre del 2015.xlsx
+++ b/Boletines hidrológicos Mensuales/Informes Pluviométricos Nacionales Mensuales/Informe Pluviométrico Nacional Totales al 31 de Octubre del 2015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="248">
   <si>
     <t>Estaciones</t>
   </si>
@@ -25,11 +25,11 @@
     <t>Octubre</t>
   </si>
   <si>
+    <t>2016 
+[mm]</t>
+  </si>
+  <si>
     <t>2015 
-[mm]</t>
-  </si>
-  <si>
-    <t>2014 
 [mm]</t>
   </si>
   <si>
@@ -38,7 +38,8 @@
 [mm]</t>
   </si>
   <si>
-    <t>Exceso o 
+    <t>Exceso 
+o 
 Déficit 
 %</t>
   </si>
@@ -55,7 +56,7 @@
     <t>Antofagasta</t>
   </si>
   <si>
-    <t>Copiapo</t>
+    <t>Copiapó</t>
   </si>
   <si>
     <t>Emb. Lautaro</t>
@@ -139,7 +140,7 @@
     <t>Concepción</t>
   </si>
   <si>
-    <t>Los Angeles</t>
+    <t>Los Ángeles</t>
   </si>
   <si>
     <t>Cañete</t>
@@ -187,7 +188,7 @@
     <t>Lon Andes</t>
   </si>
   <si>
-    <t>Valparaiso</t>
+    <t>Valparaíso</t>
   </si>
   <si>
     <t>San Jose de Maipo</t>
@@ -211,115 +212,214 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.4</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>6.5</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>43.2</t>
-  </si>
-  <si>
-    <t>45.3</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>42.1</t>
-  </si>
-  <si>
-    <t>61.2</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>43.6</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>28.6</t>
-  </si>
-  <si>
-    <t>111.5</t>
-  </si>
-  <si>
-    <t>61.8</t>
-  </si>
-  <si>
-    <t>44.2</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>72.5</t>
-  </si>
-  <si>
-    <t>75.4</t>
-  </si>
-  <si>
-    <t>73.6</t>
-  </si>
-  <si>
-    <t>229.5</t>
-  </si>
-  <si>
-    <t>100.7</t>
-  </si>
-  <si>
-    <t>83.4</t>
-  </si>
-  <si>
-    <t>138.8</t>
-  </si>
-  <si>
-    <t>132.4</t>
-  </si>
-  <si>
-    <t>78.8</t>
-  </si>
-  <si>
-    <t>93.5</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>65.7</t>
-  </si>
-  <si>
-    <t>70.3</t>
-  </si>
-  <si>
-    <t>46.4</t>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>25.8</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>52.6</t>
+  </si>
+  <si>
+    <t>56.2</t>
+  </si>
+  <si>
+    <t>47.1</t>
+  </si>
+  <si>
+    <t>98.5</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>71.5</t>
+  </si>
+  <si>
+    <t>112.5</t>
+  </si>
+  <si>
+    <t>84.3</t>
+  </si>
+  <si>
+    <t>62.8</t>
+  </si>
+  <si>
+    <t>88.1</t>
+  </si>
+  <si>
+    <t>149.0</t>
+  </si>
+  <si>
+    <t>94.7</t>
+  </si>
+  <si>
+    <t>104.5</t>
+  </si>
+  <si>
+    <t>142.3</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>111.6</t>
+  </si>
+  <si>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>143.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>31.2</t>
+  </si>
+  <si>
+    <t>28.4</t>
+  </si>
+  <si>
+    <t>67.1</t>
   </si>
   <si>
     <t>79.5</t>
   </si>
   <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>25.4</t>
+    <t>130.3</t>
+  </si>
+  <si>
+    <t>203.6</t>
+  </si>
+  <si>
+    <t>282.5</t>
+  </si>
+  <si>
+    <t>374.0</t>
+  </si>
+  <si>
+    <t>193.4</t>
+  </si>
+  <si>
+    <t>382.0</t>
+  </si>
+  <si>
+    <t>393.6</t>
+  </si>
+  <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>240.4</t>
+  </si>
+  <si>
+    <t>366.3</t>
+  </si>
+  <si>
+    <t>481.5</t>
+  </si>
+  <si>
+    <t>461.6</t>
+  </si>
+  <si>
+    <t>468.2</t>
+  </si>
+  <si>
+    <t>355.2</t>
+  </si>
+  <si>
+    <t>813.8</t>
+  </si>
+  <si>
+    <t>439.4</t>
+  </si>
+  <si>
+    <t>395.8</t>
+  </si>
+  <si>
+    <t>655.5</t>
+  </si>
+  <si>
+    <t>678.6</t>
+  </si>
+  <si>
+    <t>724.4</t>
+  </si>
+  <si>
+    <t>655.0</t>
+  </si>
+  <si>
+    <t>795.3</t>
+  </si>
+  <si>
+    <t>669.4</t>
+  </si>
+  <si>
+    <t>674.7</t>
+  </si>
+  <si>
+    <t>1237.6</t>
+  </si>
+  <si>
+    <t>670.3</t>
+  </si>
+  <si>
+    <t>830.0</t>
+  </si>
+  <si>
+    <t>347.7</t>
+  </si>
+  <si>
+    <t>363.4</t>
   </si>
   <si>
     <t>43.9</t>
@@ -373,7 +473,7 @@
     <t>194.6</t>
   </si>
   <si>
-    <t>665.8</t>
+    <t>675.8</t>
   </si>
   <si>
     <t>489.7</t>
@@ -388,7 +488,7 @@
     <t>331.1</t>
   </si>
   <si>
-    <t>495.0</t>
+    <t>461.8</t>
   </si>
   <si>
     <t>519.1</t>
@@ -412,7 +512,7 @@
     <t>1189.2</t>
   </si>
   <si>
-    <t>996.8</t>
+    <t>989.0</t>
   </si>
   <si>
     <t>1057.8</t>
@@ -424,10 +524,10 @@
     <t>1244.0</t>
   </si>
   <si>
-    <t>806.7</t>
-  </si>
-  <si>
-    <t>1078.5</t>
+    <t>831.7</t>
+  </si>
+  <si>
+    <t>1078.1</t>
   </si>
   <si>
     <t>1915.0</t>
@@ -445,129 +545,6 @@
     <t>703.0</t>
   </si>
   <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>52.4</t>
-  </si>
-  <si>
-    <t>58.1</t>
-  </si>
-  <si>
-    <t>94.9</t>
-  </si>
-  <si>
-    <t>68.5</t>
-  </si>
-  <si>
-    <t>72.1</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>145.2</t>
-  </si>
-  <si>
-    <t>190.5</t>
-  </si>
-  <si>
-    <t>105.5</t>
-  </si>
-  <si>
-    <t>533.6</t>
-  </si>
-  <si>
-    <t>292.2</t>
-  </si>
-  <si>
-    <t>248.6</t>
-  </si>
-  <si>
-    <t>198.6</t>
-  </si>
-  <si>
-    <t>241.5</t>
-  </si>
-  <si>
-    <t>453.7</t>
-  </si>
-  <si>
-    <t>507.3</t>
-  </si>
-  <si>
-    <t>575.2</t>
-  </si>
-  <si>
-    <t>604.2</t>
-  </si>
-  <si>
-    <t>1263.0</t>
-  </si>
-  <si>
-    <t>842.5</t>
-  </si>
-  <si>
-    <t>891.1</t>
-  </si>
-  <si>
-    <t>1287.3</t>
-  </si>
-  <si>
-    <t>1040.7</t>
-  </si>
-  <si>
-    <t>1294.4</t>
-  </si>
-  <si>
-    <t>1277.5</t>
-  </si>
-  <si>
-    <t>1338.5</t>
-  </si>
-  <si>
-    <t>1048.5</t>
-  </si>
-  <si>
-    <t>1017.2</t>
-  </si>
-  <si>
-    <t>2131.9</t>
-  </si>
-  <si>
-    <t>1340.6</t>
-  </si>
-  <si>
-    <t>1680.3</t>
-  </si>
-  <si>
-    <t>906.5</t>
-  </si>
-  <si>
-    <t>416.1</t>
-  </si>
-  <si>
     <t>135.8</t>
   </si>
   <si>
@@ -688,91 +665,106 @@
     <t>447.2</t>
   </si>
   <si>
-    <t>-68</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-79</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>-80</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>-70</t>
+  </si>
+  <si>
+    <t>-69</t>
+  </si>
+  <si>
+    <t>-37</t>
+  </si>
+  <si>
+    <t>-41</t>
+  </si>
+  <si>
+    <t>-29</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>-45</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>-32</t>
   </si>
   <si>
     <t>-31</t>
   </si>
   <si>
-    <t>&gt; 200</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-15</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-25</t>
+    <t>-26</t>
+  </si>
+  <si>
+    <t>-43</t>
+  </si>
+  <si>
+    <t>-39</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>-57</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>-33</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>-38</t>
   </si>
   <si>
     <t>-30</t>
   </si>
   <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>-23</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>57</t>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>-58</t>
+  </si>
+  <si>
+    <t>-19</t>
   </si>
 </sst>
 </file>
@@ -1170,16 +1162,16 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1193,16 +1185,16 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1216,16 +1208,16 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1239,16 +1231,16 @@
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1259,19 +1251,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1282,19 +1274,19 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1305,19 +1297,19 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1328,19 +1320,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1351,19 +1343,19 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1374,19 +1366,19 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1397,19 +1389,19 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1420,19 +1412,19 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1443,19 +1435,19 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1466,19 +1458,19 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G15" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1489,19 +1481,19 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1512,19 +1504,19 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1535,19 +1527,19 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1558,19 +1550,19 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1581,19 +1573,19 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1604,19 +1596,19 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1627,19 +1619,19 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1650,19 +1642,19 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1673,19 +1665,19 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1696,19 +1688,19 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1719,16 +1711,16 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
         <v>235</v>
@@ -1742,19 +1734,19 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1765,19 +1757,19 @@
         <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G28" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1788,19 +1780,19 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1811,19 +1803,19 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1834,19 +1826,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1857,19 +1849,19 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1880,19 +1872,19 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1903,19 +1895,19 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G34" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1926,19 +1918,19 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1949,19 +1941,19 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G36" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1972,19 +1964,19 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F37" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G37" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1995,19 +1987,19 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2018,19 +2010,19 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F39" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G39" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2041,19 +2033,19 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2064,19 +2056,19 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F41" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G41" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2087,19 +2079,19 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
